--- a/Quanlybanhang/Database/excel-import/product.xlsx
+++ b/Quanlybanhang/Database/excel-import/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiet\Downloads\Quanlybanhang_k\Database\excel-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EF35E1-09BD-474B-BD22-E17B808CA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E45D33-F6AC-4549-BF0A-4CDCB536689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="2415" windowWidth="23790" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Product_ID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>20AH</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>DDN</t>
   </si>
   <si>
@@ -190,13 +187,31 @@
     <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD004.png</t>
   </si>
   <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD006.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD007.png</t>
-  </si>
-  <si>
     <t>Cream</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD001.png</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD002.png</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD003.png</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD004.png</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD005.png</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD006.png</t>
+  </si>
+  <si>
+    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD007.png</t>
   </si>
 </sst>
 </file>
@@ -577,7 +592,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>31</v>
@@ -650,10 +665,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
       <c r="I2">
         <v>16000000</v>
@@ -662,18 +677,18 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>36</v>
@@ -685,10 +700,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
       <c r="I3">
         <v>16000000</v>
@@ -697,18 +712,18 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>37</v>
@@ -720,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>17000000</v>
@@ -732,18 +747,18 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -755,10 +770,10 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>18000000</v>
@@ -767,18 +782,18 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -790,10 +805,10 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>19000000</v>
@@ -802,18 +817,18 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -825,10 +840,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>20000000</v>
@@ -837,18 +852,18 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>41</v>
@@ -860,10 +875,10 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>21000000</v>
@@ -872,18 +887,18 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>42</v>
@@ -895,10 +910,10 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9">
         <v>22000000</v>
@@ -907,18 +922,18 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>43</v>
@@ -930,10 +945,10 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <v>23000000</v>
@@ -942,18 +957,18 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>48</v>
@@ -965,10 +980,10 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11">
         <v>26000000</v>
@@ -977,18 +992,18 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12">
         <v>80</v>
@@ -1000,10 +1015,10 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>27000000</v>
@@ -1012,18 +1027,18 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13">
         <v>70</v>
@@ -1035,10 +1050,10 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>49000000</v>
@@ -1047,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Quanlybanhang/Database/excel-import/product.xlsx
+++ b/Quanlybanhang/Database/excel-import/product.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiet\Downloads\Quanlybanhang_k\Database\excel-import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E45D33-F6AC-4549-BF0A-4CDCB536689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2415" windowWidth="23790" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,187 +68,524 @@
     <t>20AH</t>
   </si>
   <si>
+    <t>Red</t>
+  </si>
+  <si>
     <t>DDN</t>
   </si>
   <si>
     <t>NIJIA</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XDD001.png</t>
+  </si>
+  <si>
+    <t>WH002</t>
+  </si>
+  <si>
     <t>RAPTOR</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>D:\Quanlybanhang\Database\image-product\XDD002.png</t>
+  </si>
+  <si>
+    <t>WH003</t>
+  </si>
+  <si>
     <t>GT50</t>
   </si>
   <si>
+    <t>DDT</t>
+  </si>
+  <si>
     <t>TAILG</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XDD003.png</t>
+  </si>
+  <si>
+    <t>WH004</t>
+  </si>
+  <si>
     <t>JS32</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>D:\Quanlybanhang\Database\image-product\XDD004.png</t>
+  </si>
+  <si>
+    <t>WH005</t>
+  </si>
+  <si>
     <t>JK57</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XDD005.png</t>
+  </si>
+  <si>
+    <t>WH006</t>
+  </si>
+  <si>
     <t>ORIS</t>
   </si>
   <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>MDY</t>
+  </si>
+  <si>
     <t>YADEA</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XMD001.png</t>
+  </si>
+  <si>
+    <t>WH007</t>
+  </si>
+  <si>
     <t>VELAX</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XMD002.png</t>
+  </si>
+  <si>
+    <t>WH008</t>
+  </si>
+  <si>
     <t>EVO</t>
   </si>
   <si>
+    <t>MDV</t>
+  </si>
+  <si>
     <t>Vinfast</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XMD003.png</t>
+  </si>
+  <si>
+    <t>WH009</t>
+  </si>
+  <si>
     <t>FELIZ</t>
   </si>
   <si>
+    <t>D:\Quanlybanhang\Database\image-product\XMD004.png</t>
+  </si>
+  <si>
+    <t>WH010</t>
+  </si>
+  <si>
     <t>IconE</t>
   </si>
   <si>
     <t>Green</t>
   </si>
   <si>
+    <t>MDH</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>D:\Quanlybanhang\Database\image-product\XMD005.png</t>
+  </si>
+  <si>
+    <t>WH011</t>
+  </si>
+  <si>
     <t>CUV-E</t>
   </si>
   <si>
-    <t>White</t>
+    <t>MDYMH</t>
+  </si>
+  <si>
+    <t>YAMAHA</t>
+  </si>
+  <si>
+    <t>D:\Quanlybanhang\Database\image-product\XMD006.png</t>
+  </si>
+  <si>
+    <t>WH012</t>
   </si>
   <si>
     <t>NEO's</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>WH002</t>
-  </si>
-  <si>
-    <t>WH003</t>
-  </si>
-  <si>
-    <t>WH004</t>
-  </si>
-  <si>
-    <t>WH005</t>
-  </si>
-  <si>
-    <t>WH006</t>
-  </si>
-  <si>
-    <t>WH007</t>
-  </si>
-  <si>
-    <t>WH008</t>
-  </si>
-  <si>
-    <t>WH009</t>
-  </si>
-  <si>
-    <t>WH010</t>
-  </si>
-  <si>
-    <t>WH011</t>
-  </si>
-  <si>
-    <t>WH012</t>
-  </si>
-  <si>
-    <t>DDT</t>
-  </si>
-  <si>
-    <t>MDY</t>
-  </si>
-  <si>
-    <t>MDV</t>
-  </si>
-  <si>
-    <t>MDH</t>
-  </si>
-  <si>
-    <t>MDYMH</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>YAMAHA</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD001.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD002.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD005.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD003.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XDD004.png</t>
-  </si>
-  <si>
-    <t>Cream</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD001.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD002.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD003.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD004.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD005.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD006.png</t>
-  </si>
-  <si>
-    <t>C:\Users\kiet\Downloads\Quanlybanhang_k\Database\image-product\XMD007.png</t>
+    <t>D:\Quanlybanhang\Database\image-product\XMD007.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,24 +593,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -315,7 +945,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -348,26 +978,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -400,23 +1013,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,39 +1174,34 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="14.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="16.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="6.57407407407407" customWidth="1"/>
+    <col min="5" max="5" width="16.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="8.85185185185185" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="7.42592592592593" customWidth="1"/>
+    <col min="9" max="9" width="12.712962962963" customWidth="1"/>
+    <col min="10" max="10" width="17.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="70.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -653,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>31</v>
@@ -665,10 +1256,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>16000000</v>
@@ -677,18 +1268,18 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>36</v>
@@ -700,10 +1291,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>16000000</v>
@@ -712,18 +1303,18 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>37</v>
@@ -735,10 +1326,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>17000000</v>
@@ -747,18 +1338,18 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -770,10 +1361,10 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>18000000</v>
@@ -782,18 +1373,18 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -805,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>19000000</v>
@@ -817,18 +1408,18 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -840,10 +1431,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>20000000</v>
@@ -852,18 +1443,18 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>41</v>
@@ -875,10 +1466,10 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>21000000</v>
@@ -887,18 +1478,18 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>42</v>
@@ -910,10 +1501,10 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
       <c r="I9">
         <v>22000000</v>
@@ -922,18 +1513,18 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>43</v>
@@ -945,10 +1536,10 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
       </c>
       <c r="I10">
         <v>23000000</v>
@@ -957,18 +1548,18 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>48</v>
@@ -980,10 +1571,10 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I11">
         <v>26000000</v>
@@ -992,18 +1583,18 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
       <c r="D12">
         <v>80</v>
@@ -1015,10 +1606,10 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>27000000</v>
@@ -1027,18 +1618,18 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>70</v>
@@ -1050,10 +1641,10 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I13">
         <v>49000000</v>
@@ -1066,7 +1657,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>